--- a/testNadz/NadzReportEOD/Combined_AutoReg_Report.xlsx
+++ b/testNadz/NadzReportEOD/Combined_AutoReg_Report.xlsx
@@ -458,22 +458,22 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Sign_Up_Individual</v>
+        <v>iOS_Individual_SignUp</v>
       </c>
       <c r="B7" t="str">
-        <v>TC002</v>
+        <v>TC001</v>
       </c>
       <c r="C7" t="str">
-        <v>Mobile_SignUp_Individual_NegativeFlow</v>
+        <v>iOS_Individual_SignUp_Email_HappyFlow</v>
       </c>
       <c r="D7" t="str">
-        <v>11/07/2025, 10:11:55 am</v>
+        <v>7/17/2025, 2:57:08 PM</v>
       </c>
       <c r="E7" t="str">
         <v>PASS</v>
       </c>
       <c r="F7" t="str">
-        <v>C:\Users\user\Documents\Playwright_AutoNad\testNadz\Mobile\screenshots\TC001_step12_1752199912949.png</v>
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz/testNadz/3.Mobile_iOS/screenshots/Mobile_iOS_SignUp/step9_test_completed_success.png</v>
       </c>
     </row>
   </sheetData>
@@ -553,13 +553,13 @@
         <v>Android_Gmail_Individual_SignUp_KYC_HappyFlow</v>
       </c>
       <c r="D7" t="str">
-        <v>7/15/2025, 9:57:05 PM</v>
+        <v>7/17/2025, 3:19:16 PM</v>
       </c>
       <c r="E7" t="str">
         <v>PASS</v>
       </c>
       <c r="F7" t="str">
-        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz/testNadz/1.Mobile/screenshots/Mobile_Android_Gmail_SignUp_KYC_Individual/step53_test_completed_success.png</v>
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz/testNadz/1.Mobile_Android/screenshots/Mobile_Android_Gmail_SignUp_KYC_Individual/step53_test_completed_success.png</v>
       </c>
     </row>
   </sheetData>
@@ -571,7 +571,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -633,24 +633,44 @@
         <v>WEB_AdminLogin</v>
       </c>
       <c r="B7" t="str">
+        <v>TC002A</v>
+      </c>
+      <c r="C7" t="str">
+        <v>Web_Admin_Gmail_Approve_SupplierManagement_CompanyDetails_HappyFlow</v>
+      </c>
+      <c r="D7" t="str">
+        <v>7/17/2025, 3:19:25 PM</v>
+      </c>
+      <c r="E7" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="F7" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz/testNadz/2.Web_Android/screenshots/web_Gmail_approve_supplier_management_CompanyInfo/step21_test_completed_success.png</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>WEB_AdminLogin</v>
+      </c>
+      <c r="B8" t="str">
         <v>TC002B</v>
       </c>
-      <c r="C7" t="str">
+      <c r="C8" t="str">
         <v>Web_Admin_Gmail_Approve_SupplierManagement_BankDetails_HappyFlow</v>
       </c>
-      <c r="D7" t="str">
-        <v>7/15/2025, 10:04:53 PM</v>
-      </c>
-      <c r="E7" t="str">
-        <v>FAIL</v>
-      </c>
-      <c r="F7" t="str">
-        <v>Screenshot failed</v>
+      <c r="D8" t="str">
+        <v>7/17/2025, 3:20:04 PM</v>
+      </c>
+      <c r="E8" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="F8" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz/testNadz/2.Web_Android/screenshots/web_Gmail_approve_supplier_management_BankDetails/step16_test_completed_success.png</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F7"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F8"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/testNadz/NadzReportEOD/Combined_AutoReg_Report.xlsx
+++ b/testNadz/NadzReportEOD/Combined_AutoReg_Report.xlsx
@@ -417,7 +417,7 @@
         <v>Version:</v>
       </c>
       <c r="B2" t="str">
-        <v>1.1.07(2)</v>
+        <v>1.1.10(1)</v>
       </c>
     </row>
     <row r="3">
@@ -458,22 +458,22 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>iOS_Individual_SignUp</v>
+        <v>iOS_Individual_SignUp_AppleId</v>
       </c>
       <c r="B7" t="str">
-        <v>TC001</v>
+        <v>TC004</v>
       </c>
       <c r="C7" t="str">
-        <v>iOS_Individual_SignUp_Email_HappyFlow</v>
+        <v>iOS_Individual_SignUp_AppleId_HappyFlow</v>
       </c>
       <c r="D7" t="str">
-        <v>7/17/2025, 2:57:08 PM</v>
+        <v>7/18/2025, 4:25:22 PM</v>
       </c>
       <c r="E7" t="str">
         <v>PASS</v>
       </c>
       <c r="F7" t="str">
-        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz/testNadz/3.Mobile_iOS/screenshots/Mobile_iOS_SignUp/step9_test_completed_success.png</v>
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz/testNadz/3.Mobile_iOS/screenshots/Mobile_iOS_SignUp_AppleId_Individual/step52_test_completed_success.png</v>
       </c>
     </row>
   </sheetData>
@@ -503,7 +503,7 @@
         <v>Version:</v>
       </c>
       <c r="B2" t="str">
-        <v>1.1.07(2)</v>
+        <v>1.1.10(1)</v>
       </c>
     </row>
     <row r="3">
@@ -633,19 +633,19 @@
         <v>WEB_AdminLogin</v>
       </c>
       <c r="B7" t="str">
-        <v>TC002A</v>
+        <v>TC004A</v>
       </c>
       <c r="C7" t="str">
-        <v>Web_Admin_Gmail_Approve_SupplierManagement_CompanyDetails_HappyFlow</v>
+        <v>Web_Admin_AppleId_Approve_SupplierManagement_CompanyDetails_HappyFlow</v>
       </c>
       <c r="D7" t="str">
-        <v>7/17/2025, 3:19:25 PM</v>
+        <v>7/18/2025, 4:28:20 PM</v>
       </c>
       <c r="E7" t="str">
         <v>PASS</v>
       </c>
       <c r="F7" t="str">
-        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz/testNadz/2.Web_Android/screenshots/web_Gmail_approve_supplier_management_CompanyInfo/step21_test_completed_success.png</v>
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz/testNadz/2.Web/screenshots/web_AppleId_approve_supplier_management_CompanyInfo/step21_test_completed_success.png</v>
       </c>
     </row>
     <row r="8">
@@ -653,19 +653,19 @@
         <v>WEB_AdminLogin</v>
       </c>
       <c r="B8" t="str">
-        <v>TC002B</v>
+        <v>TC004B</v>
       </c>
       <c r="C8" t="str">
-        <v>Web_Admin_Gmail_Approve_SupplierManagement_BankDetails_HappyFlow</v>
+        <v>Web_Admin_AppleId_Approve_Individual_SupplierManagement_BankDetails_HappyFlow</v>
       </c>
       <c r="D8" t="str">
-        <v>7/17/2025, 3:20:04 PM</v>
+        <v>7/18/2025, 4:38:13 PM</v>
       </c>
       <c r="E8" t="str">
         <v>PASS</v>
       </c>
       <c r="F8" t="str">
-        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz/testNadz/2.Web_Android/screenshots/web_Gmail_approve_supplier_management_BankDetails/step16_test_completed_success.png</v>
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz/testNadz/2.Web/screenshots/web_AppleId_approve_Individual_supplier_management_BankDetails/step16_test_completed_success.png</v>
       </c>
     </row>
   </sheetData>

--- a/testNadz/NadzReportEOD/Combined_AutoReg_Report.xlsx
+++ b/testNadz/NadzReportEOD/Combined_AutoReg_Report.xlsx
@@ -458,22 +458,22 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>iOS_Individual_SignUp_AppleId</v>
+        <v>iOS_SubmitSingleCrop</v>
       </c>
       <c r="B7" t="str">
-        <v>TC004</v>
+        <v>TC0013</v>
       </c>
       <c r="C7" t="str">
-        <v>iOS_Individual_SignUp_AppleId_HappyFlow</v>
+        <v>iOS_Submit_Single_Crop_Driver_Collect_HappyFlow</v>
       </c>
       <c r="D7" t="str">
-        <v>7/18/2025, 4:25:22 PM</v>
+        <v>7/25/2025, 11:24:46 AM</v>
       </c>
       <c r="E7" t="str">
-        <v>PASS</v>
+        <v>FAIL</v>
       </c>
       <c r="F7" t="str">
-        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz/testNadz/3.Mobile_iOS/screenshots/Mobile_iOS_SignUp_AppleId_Individual/step52_test_completed_success.png</v>
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz/testNadz/3.Mobile_iOS/screenshots/Mobile_iOS_TC0013_SubmitSingleCrop/step3_error.png</v>
       </c>
     </row>
   </sheetData>
@@ -633,19 +633,19 @@
         <v>WEB_AdminLogin</v>
       </c>
       <c r="B7" t="str">
-        <v>TC004A</v>
+        <v>TC001C</v>
       </c>
       <c r="C7" t="str">
-        <v>Web_Admin_AppleId_Approve_SupplierManagement_CompanyDetails_HappyFlow</v>
+        <v>Web_Admin_FB_Company_Approve_SupplierManagement_CompanyDetails_HappyFlow</v>
       </c>
       <c r="D7" t="str">
-        <v>7/18/2025, 4:28:20 PM</v>
+        <v>7/23/2025, 9:33:55 AM</v>
       </c>
       <c r="E7" t="str">
         <v>PASS</v>
       </c>
       <c r="F7" t="str">
-        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz/testNadz/2.Web/screenshots/web_AppleId_approve_supplier_management_CompanyInfo/step21_test_completed_success.png</v>
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz/testNadz/2.Web/screenshots/web_FB_Company_approve_supplier_management_CompanyInfo/step20_test_completed_success.png</v>
       </c>
     </row>
     <row r="8">
@@ -653,19 +653,19 @@
         <v>WEB_AdminLogin</v>
       </c>
       <c r="B8" t="str">
-        <v>TC004B</v>
+        <v>TC001D</v>
       </c>
       <c r="C8" t="str">
-        <v>Web_Admin_AppleId_Approve_Individual_SupplierManagement_BankDetails_HappyFlow</v>
+        <v>Web_Admin_FB_Company_Approve_SupplierManagement_BankDetails_HappyFlow</v>
       </c>
       <c r="D8" t="str">
-        <v>7/18/2025, 4:38:13 PM</v>
+        <v>7/23/2025, 9:35:13 AM</v>
       </c>
       <c r="E8" t="str">
         <v>PASS</v>
       </c>
       <c r="F8" t="str">
-        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz/testNadz/2.Web/screenshots/web_AppleId_approve_Individual_supplier_management_BankDetails/step16_test_completed_success.png</v>
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz/testNadz/2.Web/screenshots/web_FB_Company_approve_supplier_management_BankDetails/step13_test_completed_success.png</v>
       </c>
     </row>
   </sheetData>
